--- a/StructureDefinition-research-study-design.xlsx
+++ b/StructureDefinition-research-study-design.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-17T22:43:52+00:00</t>
+    <t>2023-11-27T20:47:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -342,7 +342,7 @@
     <t>example</t>
   </si>
   <si>
-    <t>https://nih-ncpi.github.io/ncpi-fhir-ig-2/ValueSet/study-design</t>
+    <t>https://hl7.org/fhir/valueset-study-design.html</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
@@ -685,7 +685,7 @@
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="21.57421875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="57.234375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="43.4375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-research-study-design.xlsx
+++ b/StructureDefinition-research-study-design.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-27T20:47:53+00:00</t>
+    <t>2023-11-27T21:08:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-design.xlsx
+++ b/StructureDefinition-research-study-design.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-27T21:08:00+00:00</t>
+    <t>2023-12-14T19:43:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-design.xlsx
+++ b/StructureDefinition-research-study-design.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-14T19:43:16+00:00</t>
+    <t>2024-01-03T18:03:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-design.xlsx
+++ b/StructureDefinition-research-study-design.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-03T18:03:54+00:00</t>
+    <t>2024-01-03T22:56:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-design.xlsx
+++ b/StructureDefinition-research-study-design.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-03T22:56:43+00:00</t>
+    <t>2024-03-11T22:11:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -123,7 +123,7 @@
     <t>Context</t>
   </si>
   <si>
-    <t>element:Element</t>
+    <t>element:NcpiResearchStudy</t>
   </si>
   <si>
     <t>ID</t>

--- a/StructureDefinition-research-study-design.xlsx
+++ b/StructureDefinition-research-study-design.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-11T22:11:27+00:00</t>
+    <t>2024-03-15T21:50:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -123,7 +123,7 @@
     <t>Context</t>
   </si>
   <si>
-    <t>element:NcpiResearchStudy</t>
+    <t>element:ResearchStudy</t>
   </si>
   <si>
     <t>ID</t>

--- a/StructureDefinition-research-study-design.xlsx
+++ b/StructureDefinition-research-study-design.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-15T21:50:53+00:00</t>
+    <t>2024-03-18T15:37:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-design.xlsx
+++ b/StructureDefinition-research-study-design.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-18T15:37:44+00:00</t>
+    <t>2024-03-18T15:48:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-design.xlsx
+++ b/StructureDefinition-research-study-design.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-18T15:48:54+00:00</t>
+    <t>2024-03-21T20:04:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
